--- a/Course II/АД/xlsx/АД 30 ноября 2020.xlsx
+++ b/Course II/АД/xlsx/АД 30 ноября 2020.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgiydemo/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF7D633-79B8-1C49-B4B3-EB760D36005C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1300" windowWidth="22600" windowHeight="13720" xr2:uid="{4D7EF9A4-35D7-994B-97E5-8592770D894E}"/>
+    <workbookView xWindow="1200" yWindow="1305" windowWidth="22605" windowHeight="13725"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -66,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -449,19 +443,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493DF042-6E7E-4B41-889D-A9A6297E2306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="40" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="27" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -558,5 +552,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>